--- a/biology/Botanique/Liste_de_variétés_de_houblon/Liste_de_variétés_de_houblon.xlsx
+++ b/biology/Botanique/Liste_de_variétés_de_houblon/Liste_de_variétés_de_houblon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_houblon</t>
+          <t>Liste_de_variétés_de_houblon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page contient une liste de variétés de houblon, classées par pays.
-On estime à environ 150 le nombre de variétés (cultivars) de houblon cultivées dans le monde en 2019[1].
+On estime à environ 150 le nombre de variétés (cultivars) de houblon cultivées dans le monde en 2019.
 Les différentes variétés peuvent être divisées en trois catégories, selon leur utilisation :
 houblons aromatiques : variétés utilisées en brasserie principalement pour leurs propriétés aromatiques ;
 houblons amérisants : variétés utilisées en brasserie principalement pour leurs propriétés amérisantes ; ces variétés ont une teneur élevée en acides alpha ;
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_houblon</t>
+          <t>Liste_de_variétés_de_houblon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,20 +530,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Belgique
-Les (anciennes) variétés belges suivantes[2] sont peu ou plus cultivées.
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les (anciennes) variétés belges suivantes sont peu ou plus cultivées.
 White slender, la plus ancienne variété connue, était très sensible à la maladie du blanc. C'était la variété principale jusqu'à la fin du XIXe siècle.
 Groene Belle, de la région d'Alost-Asse.
 Coigneau, sélectionnée dans les houblonnières de Franciscus Coigneau à Teralfene, district de Affligem.
 Buvrinnes, originaire du village de Buvrinnes en Hainaut.
 Star, sélectionnée par Roger Top à partir d'une souche de Saaz. Cette espèce était sensible aux maladies.
 Record, à l'arôme fruité.
-Loeren, variété de houblon principalement cultivée à Erembodegem.
-Royaume-Uni
-Allemagne
-Tchéquie
-Slovénie
-Autres pays européens</t>
+Loeren, variété de houblon principalement cultivée à Erembodegem.</t>
         </is>
       </c>
     </row>
@@ -541,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_houblon</t>
+          <t>Liste_de_variétés_de_houblon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,6 +572,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_houblon</t>
+          <t>Liste_de_variétés_de_houblon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,6 +600,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -593,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_houblon</t>
+          <t>Liste_de_variétés_de_houblon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,12 +627,13 @@
           <t>Asie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sur la base de la distribution de la variation génétique actuelle, Murakami et al. soutiennent que le genre Humulus est probablement originaire de Chine[4]. Comme indice supplémentaire, ils mentionnent que les trois espèces du genre Lupulus : H. lupulus L., H. japonicus Siebold &amp; Zuccarini (syn. H. scandens (Loureiro) Merrill) et H. yunnanensis Hu, sont présentes en Chine et l'une de ces espèces y est  endémique.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur la base de la distribution de la variation génétique actuelle, Murakami et al. soutiennent que le genre Humulus est probablement originaire de Chine. Comme indice supplémentaire, ils mentionnent que les trois espèces du genre Lupulus : H. lupulus L., H. japonicus Siebold &amp; Zuccarini (syn. H. scandens (Loureiro) Merrill) et H. yunnanensis Hu, sont présentes en Chine et l'une de ces espèces y est  endémique.
 Le houblon est cultivé en Chine depuis 1921. La première variété cultivée, Hadora, a été introduite d'Allemagne.
-Chine
-Japon</t>
+</t>
         </is>
       </c>
     </row>
@@ -626,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_houblon</t>
+          <t>Liste_de_variétés_de_houblon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,9 +661,11 @@
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1956, la société South African Breweries Hop Farms Ltd (qui fait maintenant partie de SABMiller) a lancé un programme de sélection. L'intention était de cultiver de nouvelles variétés adaptées au climat et  à la durée d'ensoleillement de la région d'Outeniqua (municipalité de George), Afrique du Sud. En 1972, la variété Southern Brewer a été mise sur le marché  et est restée la principale variété de houblon cultivée en Afrique du Sud pendant les 20 années suivantes. Parce qu'il y a trop peu d'heures de lumière du jour autour de l'équateur, on a dû recourir à la lumière artificielle pour faire pousser ces houblons. Ce n'est qu'en 1992 que deux nouvelles variétés ont été sélectionnées, Outeniqua et Southern Promise, qui pourraient pousser avec moins de lumière du jour[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1956, la société South African Breweries Hop Farms Ltd (qui fait maintenant partie de SABMiller) a lancé un programme de sélection. L'intention était de cultiver de nouvelles variétés adaptées au climat et  à la durée d'ensoleillement de la région d'Outeniqua (municipalité de George), Afrique du Sud. En 1972, la variété Southern Brewer a été mise sur le marché  et est restée la principale variété de houblon cultivée en Afrique du Sud pendant les 20 années suivantes. Parce qu'il y a trop peu d'heures de lumière du jour autour de l'équateur, on a dû recourir à la lumière artificielle pour faire pousser ces houblons. Ce n'est qu'en 1992 que deux nouvelles variétés ont été sélectionnées, Outeniqua et Southern Promise, qui pourraient pousser avec moins de lumière du jour.
 </t>
         </is>
       </c>
@@ -657,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_vari%C3%A9t%C3%A9s_de_houblon</t>
+          <t>Liste_de_variétés_de_houblon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +694,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(nl) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en néerlandais intitulé « Lijst van hopvariëteiten » (voir la liste des auteurs).
 (en) « Hop Guide », sur beeradvocate.com (consulté le 4 mars 2021).
